--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="8265" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="24030" windowHeight="11730" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
   <si>
     <t>phone</t>
   </si>
@@ -284,6 +284,48 @@
     <t>这是评价这是评价1111</t>
   </si>
   <si>
+    <t>这是未完成的契约</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，我方使用印章，对方不使用印章</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，我方不使用印章，对方使用印章</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，双方都使用印章</t>
+  </si>
+  <si>
+    <t>成都三之之文化传媒有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司不是契约公司</t>
+  </si>
+  <si>
+    <t>对方公司不是契约宝认证用户，无法创建未完成履约</t>
+  </si>
+  <si>
+    <t>杭州天谷信息科技有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司没有认证</t>
+  </si>
+  <si>
+    <t>杭州移领网络科技有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司不是印章用户，对方使用印章</t>
+  </si>
+  <si>
+    <t>对方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+  </si>
+  <si>
+    <t>添加未完成契约，我方不是印章用户，使用印章</t>
+  </si>
+  <si>
+    <t>我方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
@@ -366,6 +408,12 @@
   </si>
   <si>
     <t>PHONE = '18782030006' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>更新 福建中鑫华为科技有限公司为当前公司,非印章用户</t>
+  </si>
+  <si>
+    <t>UserId = "571499710155046449" AND CompanyId = "415178340104738664"</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -443,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -454,28 +502,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,8 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +540,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,23 +576,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,8 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,14 +629,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,31 +658,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,151 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,21 +849,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -828,11 +861,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,6 +893,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -862,16 +912,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,11 +943,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +969,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2019,13 +2067,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
@@ -2058,6 +2106,82 @@
         <v>86</v>
       </c>
     </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2067,10 +2191,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2086,167 +2210,181 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
+      <c r="D16" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2428,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2301,7 +2439,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2309,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2317,21 +2455,21 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2483,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2358,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2369,68 +2507,68 @@
     </row>
     <row r="2" ht="57" spans="1:3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="11730" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20910" windowHeight="11505" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <t>添加未完成契约，我方不是印章用户，使用印章</t>
   </si>
   <si>
-    <t>我方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+    <t>您不是防伪智能印章用户，无法选择使用防伪智能印章。</t>
   </si>
   <si>
     <t>table</t>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -505,57 +505,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,21 +536,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,36 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -658,19 +658,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,151 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,45 +849,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,23 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,8 +890,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,133 +969,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2069,8 +2069,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2193,7 +2193,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
